--- a/Ver2/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
+++ b/Ver2/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="AO3" t="n">
-        <v>5454000</v>
+        <v>4454000</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="AR3" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="AO6" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="AR6" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>8000000</v>
+        <v>15000000</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="AO8" t="n">
-        <v>20300000</v>
+        <v>13300000</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="AR8" t="n">
-        <v>22000000</v>
+        <v>15000000</v>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>22000000</v>
+        <v>25000000</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="AO10" t="n">
-        <v>12500000</v>
+        <v>9500000</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="AR10" t="n">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="AO18" t="n">
-        <v>9750000</v>
+        <v>4750000</v>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="AR18" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="AO19" t="n">
-        <v>14850000</v>
+        <v>9850000</v>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         </is>
       </c>
       <c r="AR19" t="n">
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="AO24" t="n">
-        <v>15000000</v>
+        <v>14000000</v>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="AR24" t="n">
-        <v>3500000</v>
+        <v>2500000</v>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="AO36" t="n">
-        <v>60000000</v>
+        <v>53000000</v>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="AR36" t="n">
-        <v>60000000</v>
+        <v>53000000</v>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="Z37" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         </is>
       </c>
       <c r="AO37" t="n">
-        <v>18000000</v>
+        <v>10000000</v>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         </is>
       </c>
       <c r="AR37" t="n">
-        <v>18000000</v>
+        <v>10000000</v>
       </c>
       <c r="AS37" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8339,7 +8339,7 @@
         </is>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="AO40" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         </is>
       </c>
       <c r="AR40" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
       <c r="AS40" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8538,7 +8538,7 @@
         </is>
       </c>
       <c r="Z41" t="n">
-        <v>500000</v>
+        <v>1300000</v>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="AO41" t="n">
-        <v>1800000</v>
+        <v>1000000</v>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="AR41" t="n">
-        <v>1800000</v>
+        <v>1000000</v>
       </c>
       <c r="AS41" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11523,7 +11523,7 @@
         </is>
       </c>
       <c r="Z56" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="AO56" t="n">
-        <v>6500000</v>
+        <v>5500000</v>
       </c>
       <c r="AP56" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         </is>
       </c>
       <c r="AR56" t="n">
-        <v>5500000</v>
+        <v>4500000</v>
       </c>
       <c r="AS56" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         </is>
       </c>
       <c r="AO57" t="n">
-        <v>3000000</v>
+        <v>2300000</v>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="AR57" t="n">
-        <v>3500000</v>
+        <v>2800000</v>
       </c>
       <c r="AS57" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15105,7 +15105,7 @@
         </is>
       </c>
       <c r="Z74" t="n">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         </is>
       </c>
       <c r="AO74" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="AP74" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         </is>
       </c>
       <c r="AR74" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="AS74" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
